--- a/Tmrw.xlsx
+++ b/Tmrw.xlsx
@@ -2508,9 +2508,6 @@
     <t>สยามพารากอน ชั้น 3 บริเวณ Star Dome</t>
   </si>
   <si>
-    <t>รออัพเดทจากธนาคาร</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -3556,6 +3553,9 @@
   </si>
   <si>
     <t>ไม่ระบุเวลา</t>
+  </si>
+  <si>
+    <t>เปิดทำการปกติ</t>
   </si>
 </sst>
 </file>
@@ -3936,34 +3936,34 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>216</v>
@@ -3972,16 +3972,16 @@
         <v>217</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>218</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>820</v>
@@ -4037,12 +4037,12 @@
         <v>821</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>820</v>
@@ -4072,10 +4072,10 @@
         <v>84</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M3" s="3">
         <v>13.768800000000001</v>
@@ -4090,12 +4090,12 @@
         <v>821</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>820</v>
@@ -4125,10 +4125,10 @@
         <v>84</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M4" s="3">
         <v>13.7417</v>
@@ -4143,12 +4143,12 @@
         <v>821</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>820</v>
@@ -4178,10 +4178,10 @@
         <v>84</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M5" s="3">
         <v>13.680400000000001</v>
@@ -4196,12 +4196,12 @@
         <v>821</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>820</v>
@@ -4231,10 +4231,10 @@
         <v>84</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M6" s="3">
         <v>13.9138</v>
@@ -4249,12 +4249,12 @@
         <v>821</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>820</v>
@@ -4284,10 +4284,10 @@
         <v>84</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M7" s="3">
         <v>13.6774</v>
@@ -4302,12 +4302,12 @@
         <v>821</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>820</v>
@@ -4337,10 +4337,10 @@
         <v>84</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M8" s="3">
         <v>13.67</v>
@@ -4355,12 +4355,12 @@
         <v>821</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>820</v>
@@ -4408,12 +4408,12 @@
         <v>821</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>820</v>
@@ -4443,10 +4443,10 @@
         <v>84</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M10" s="3">
         <v>13.723800000000001</v>
@@ -4461,12 +4461,12 @@
         <v>821</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>820</v>
@@ -4514,12 +4514,12 @@
         <v>821</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>820</v>
@@ -4567,12 +4567,12 @@
         <v>821</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>820</v>
@@ -4620,12 +4620,12 @@
         <v>821</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>820</v>
@@ -4634,7 +4634,7 @@
         <v>249</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>250</v>
@@ -4673,12 +4673,12 @@
         <v>821</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>820</v>
@@ -4687,7 +4687,7 @@
         <v>252</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>253</v>
@@ -4726,12 +4726,12 @@
         <v>821</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>820</v>
@@ -4740,7 +4740,7 @@
         <v>254</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>255</v>
@@ -4779,12 +4779,12 @@
         <v>821</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>820</v>
@@ -4793,7 +4793,7 @@
         <v>256</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>257</v>
@@ -4832,12 +4832,12 @@
         <v>821</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>820</v>
@@ -4846,7 +4846,7 @@
         <v>258</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>250</v>
@@ -4885,12 +4885,12 @@
         <v>821</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>820</v>
@@ -4899,7 +4899,7 @@
         <v>259</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>255</v>
@@ -4938,12 +4938,12 @@
         <v>821</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>820</v>
@@ -4952,7 +4952,7 @@
         <v>260</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>257</v>
@@ -4991,12 +4991,12 @@
         <v>821</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>820</v>
@@ -5005,7 +5005,7 @@
         <v>261</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>255</v>
@@ -5044,12 +5044,12 @@
         <v>821</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>820</v>
@@ -5058,7 +5058,7 @@
         <v>262</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>255</v>
@@ -5097,12 +5097,12 @@
         <v>821</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>820</v>
@@ -5111,7 +5111,7 @@
         <v>263</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>257</v>
@@ -5150,12 +5150,12 @@
         <v>821</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>820</v>
@@ -5164,7 +5164,7 @@
         <v>264</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>250</v>
@@ -5203,12 +5203,12 @@
         <v>821</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>820</v>
@@ -5217,7 +5217,7 @@
         <v>265</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>257</v>
@@ -5256,12 +5256,12 @@
         <v>821</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>820</v>
@@ -5270,7 +5270,7 @@
         <v>266</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>250</v>
@@ -5309,12 +5309,12 @@
         <v>821</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>820</v>
@@ -5323,7 +5323,7 @@
         <v>267</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>268</v>
@@ -5362,12 +5362,12 @@
         <v>821</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>820</v>
@@ -5376,7 +5376,7 @@
         <v>269</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>250</v>
@@ -5415,12 +5415,12 @@
         <v>821</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>820</v>
@@ -5429,7 +5429,7 @@
         <v>270</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>253</v>
@@ -5468,12 +5468,12 @@
         <v>821</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>820</v>
@@ -5482,7 +5482,7 @@
         <v>271</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>253</v>
@@ -5521,12 +5521,12 @@
         <v>821</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>820</v>
@@ -5535,7 +5535,7 @@
         <v>272</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>253</v>
@@ -5574,12 +5574,12 @@
         <v>821</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>820</v>
@@ -5588,7 +5588,7 @@
         <v>273</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>253</v>
@@ -5627,12 +5627,12 @@
         <v>821</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>820</v>
@@ -5641,7 +5641,7 @@
         <v>274</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>255</v>
@@ -5680,12 +5680,12 @@
         <v>821</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>820</v>
@@ -5694,7 +5694,7 @@
         <v>275</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>255</v>
@@ -5733,12 +5733,12 @@
         <v>821</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>820</v>
@@ -5747,7 +5747,7 @@
         <v>276</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>250</v>
@@ -5786,12 +5786,12 @@
         <v>821</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>820</v>
@@ -5800,7 +5800,7 @@
         <v>277</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>255</v>
@@ -5839,12 +5839,12 @@
         <v>821</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>820</v>
@@ -5853,7 +5853,7 @@
         <v>278</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>255</v>
@@ -5892,12 +5892,12 @@
         <v>821</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>820</v>
@@ -5906,7 +5906,7 @@
         <v>279</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>253</v>
@@ -5945,12 +5945,12 @@
         <v>821</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>820</v>
@@ -5959,7 +5959,7 @@
         <v>280</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>253</v>
@@ -5998,12 +5998,12 @@
         <v>821</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>820</v>
@@ -6012,7 +6012,7 @@
         <v>281</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>250</v>
@@ -6051,12 +6051,12 @@
         <v>821</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>820</v>
@@ -6065,7 +6065,7 @@
         <v>282</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>255</v>
@@ -6104,12 +6104,12 @@
         <v>821</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>820</v>
@@ -6118,7 +6118,7 @@
         <v>283</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>253</v>
@@ -6157,12 +6157,12 @@
         <v>821</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>820</v>
@@ -6171,7 +6171,7 @@
         <v>284</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>253</v>
@@ -6210,12 +6210,12 @@
         <v>821</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>820</v>
@@ -6224,7 +6224,7 @@
         <v>285</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>253</v>
@@ -6263,12 +6263,12 @@
         <v>821</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>820</v>
@@ -6277,7 +6277,7 @@
         <v>286</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>250</v>
@@ -6316,12 +6316,12 @@
         <v>821</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>820</v>
@@ -6369,12 +6369,12 @@
         <v>821</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>820</v>
@@ -6404,10 +6404,10 @@
         <v>84</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M47" s="3">
         <v>13.747645</v>
@@ -6422,12 +6422,12 @@
         <v>821</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>820</v>
@@ -6475,12 +6475,12 @@
         <v>821</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>820</v>
@@ -6528,12 +6528,12 @@
         <v>821</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>820</v>
@@ -6581,12 +6581,12 @@
         <v>821</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>820</v>
@@ -6634,12 +6634,12 @@
         <v>821</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>820</v>
@@ -6687,12 +6687,12 @@
         <v>821</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>820</v>
@@ -6740,12 +6740,12 @@
         <v>821</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>820</v>
@@ -6793,12 +6793,12 @@
         <v>821</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>820</v>
@@ -6846,12 +6846,12 @@
         <v>821</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>820</v>
@@ -6899,12 +6899,12 @@
         <v>821</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>820</v>
@@ -6934,10 +6934,10 @@
         <v>84</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M57" s="3">
         <v>13.887947</v>
@@ -6952,12 +6952,12 @@
         <v>821</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>820</v>
@@ -6987,10 +6987,10 @@
         <v>9</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M58" s="3">
         <v>13.750666000000001</v>
@@ -7005,12 +7005,12 @@
         <v>821</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>820</v>
@@ -7058,12 +7058,12 @@
         <v>821</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>820</v>
@@ -7111,12 +7111,12 @@
         <v>821</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>820</v>
@@ -7146,10 +7146,10 @@
         <v>84</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M61" s="3">
         <v>13.752618999999999</v>
@@ -7164,12 +7164,12 @@
         <v>821</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>820</v>
@@ -7199,10 +7199,10 @@
         <v>84</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M62" s="3">
         <v>13.720767</v>
@@ -7217,12 +7217,12 @@
         <v>821</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>820</v>
@@ -7252,10 +7252,10 @@
         <v>84</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M63" s="3">
         <v>13.796044</v>
@@ -7270,12 +7270,12 @@
         <v>821</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>820</v>
@@ -7305,10 +7305,10 @@
         <v>84</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M64" s="3">
         <v>13.718121</v>
@@ -7323,12 +7323,12 @@
         <v>821</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>820</v>
@@ -7376,12 +7376,12 @@
         <v>821</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>820</v>
@@ -7429,12 +7429,12 @@
         <v>821</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>820</v>
@@ -7482,12 +7482,12 @@
         <v>821</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>820</v>
@@ -7517,10 +7517,10 @@
         <v>84</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M68" s="3">
         <v>13.8124</v>
@@ -7535,12 +7535,12 @@
         <v>821</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>820</v>
@@ -7570,10 +7570,10 @@
         <v>84</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M69" s="3">
         <v>13.917501</v>
@@ -7588,12 +7588,12 @@
         <v>821</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>820</v>
@@ -7623,10 +7623,10 @@
         <v>84</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M70" s="3">
         <v>13.816895000000001</v>
@@ -7641,12 +7641,12 @@
         <v>821</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>820</v>
@@ -7676,10 +7676,10 @@
         <v>84</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M71" s="3">
         <v>13.704817</v>
@@ -7694,12 +7694,12 @@
         <v>821</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>820</v>
@@ -7729,10 +7729,10 @@
         <v>84</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M72" s="3">
         <v>13.843832000000001</v>
@@ -7747,12 +7747,12 @@
         <v>821</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>820</v>
@@ -7782,10 +7782,10 @@
         <v>84</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M73" s="3">
         <v>13.710176000000001</v>
@@ -7800,12 +7800,12 @@
         <v>821</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>820</v>
@@ -7853,12 +7853,12 @@
         <v>821</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>820</v>
@@ -7888,10 +7888,10 @@
         <v>84</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M75" s="3">
         <v>13.729526</v>
@@ -7906,12 +7906,12 @@
         <v>821</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>820</v>
@@ -7941,10 +7941,10 @@
         <v>84</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M76" s="3">
         <v>13.935321</v>
@@ -7959,12 +7959,12 @@
         <v>821</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>820</v>
@@ -7994,10 +7994,10 @@
         <v>84</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M77" s="3">
         <v>13.819765</v>
@@ -8012,12 +8012,12 @@
         <v>821</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>820</v>
@@ -8050,7 +8050,7 @@
         <v>376</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M78" s="3">
         <v>13.746428</v>
@@ -8065,12 +8065,12 @@
         <v>821</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>820</v>
@@ -8100,10 +8100,10 @@
         <v>84</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M79" s="3">
         <v>13.773898000000001</v>
@@ -8118,12 +8118,12 @@
         <v>821</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>820</v>
@@ -8171,12 +8171,12 @@
         <v>821</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>820</v>
@@ -8206,10 +8206,10 @@
         <v>84</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M81" s="3">
         <v>13.777659</v>
@@ -8224,12 +8224,12 @@
         <v>821</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>820</v>
@@ -8259,10 +8259,10 @@
         <v>84</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M82" s="3">
         <v>13.69605</v>
@@ -8277,12 +8277,12 @@
         <v>821</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>820</v>
@@ -8312,10 +8312,10 @@
         <v>84</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M83" s="3">
         <v>13.709250000000001</v>
@@ -8330,12 +8330,12 @@
         <v>821</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>820</v>
@@ -8365,10 +8365,10 @@
         <v>9</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M84" s="3">
         <v>13.754111999999999</v>
@@ -8383,12 +8383,12 @@
         <v>821</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>820</v>
@@ -8418,10 +8418,10 @@
         <v>84</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M85" s="3">
         <v>13.740145999999999</v>
@@ -8436,12 +8436,12 @@
         <v>821</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>820</v>
@@ -8489,12 +8489,12 @@
         <v>821</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>820</v>
@@ -8524,10 +8524,10 @@
         <v>84</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M87" s="3">
         <v>13.739537</v>
@@ -8542,12 +8542,12 @@
         <v>821</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>820</v>
@@ -8577,10 +8577,10 @@
         <v>84</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M88" s="3">
         <v>13.649533</v>
@@ -8595,12 +8595,12 @@
         <v>821</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>820</v>
@@ -8630,10 +8630,10 @@
         <v>84</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M89" s="3">
         <v>13.551465</v>
@@ -8648,12 +8648,12 @@
         <v>821</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>820</v>
@@ -8683,10 +8683,10 @@
         <v>84</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M90" s="3">
         <v>13.721487</v>
@@ -8701,12 +8701,12 @@
         <v>821</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>820</v>
@@ -8736,10 +8736,10 @@
         <v>84</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M91" s="3">
         <v>13.720420000000001</v>
@@ -8754,12 +8754,12 @@
         <v>821</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>820</v>
@@ -8807,12 +8807,12 @@
         <v>821</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>820</v>
@@ -8860,12 +8860,12 @@
         <v>821</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>820</v>
@@ -8895,10 +8895,10 @@
         <v>84</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M94" s="3">
         <v>13.834663000000001</v>
@@ -8913,12 +8913,12 @@
         <v>821</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>820</v>
@@ -8948,10 +8948,10 @@
         <v>84</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M95" s="3">
         <v>13.731427999999999</v>
@@ -8966,12 +8966,12 @@
         <v>821</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>820</v>
@@ -9001,10 +9001,10 @@
         <v>84</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M96" s="3">
         <v>13.766588</v>
@@ -9019,12 +9019,12 @@
         <v>821</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>820</v>
@@ -9072,12 +9072,12 @@
         <v>821</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>820</v>
@@ -9107,10 +9107,10 @@
         <v>84</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M98" s="3">
         <v>13.728866999999999</v>
@@ -9125,12 +9125,12 @@
         <v>821</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>820</v>
@@ -9178,12 +9178,12 @@
         <v>821</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>820</v>
@@ -9213,10 +9213,10 @@
         <v>20</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M100" s="3">
         <v>13.735849999999999</v>
@@ -9231,12 +9231,12 @@
         <v>821</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>820</v>
@@ -9266,10 +9266,10 @@
         <v>84</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M101" s="3">
         <v>13.7072</v>
@@ -9284,12 +9284,12 @@
         <v>821</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>820</v>
@@ -9319,10 +9319,10 @@
         <v>84</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M102" s="3">
         <v>13.694651</v>
@@ -9337,12 +9337,12 @@
         <v>821</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>820</v>
@@ -9372,10 +9372,10 @@
         <v>84</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M103" s="3">
         <v>13.737927000000001</v>
@@ -9390,12 +9390,12 @@
         <v>821</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>820</v>
@@ -9425,10 +9425,10 @@
         <v>84</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M104" s="3">
         <v>13.638839000000001</v>
@@ -9443,12 +9443,12 @@
         <v>821</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>820</v>
@@ -9496,12 +9496,12 @@
         <v>821</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>820</v>
@@ -9531,10 +9531,10 @@
         <v>84</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M106" s="3">
         <v>13.735305</v>
@@ -9549,12 +9549,12 @@
         <v>821</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>820</v>
@@ -9584,10 +9584,10 @@
         <v>84</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M107" s="3">
         <v>13.728608599999999</v>
@@ -9602,12 +9602,12 @@
         <v>821</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>820</v>
@@ -9637,10 +9637,10 @@
         <v>84</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M108" s="3">
         <v>13.741047999999999</v>
@@ -9655,12 +9655,12 @@
         <v>821</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>820</v>
@@ -9690,10 +9690,10 @@
         <v>84</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M109" s="3">
         <v>13.686303000000001</v>
@@ -9708,12 +9708,12 @@
         <v>821</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>820</v>
@@ -9743,10 +9743,10 @@
         <v>84</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M110" s="3">
         <v>13.808109999999999</v>
@@ -9761,12 +9761,12 @@
         <v>821</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>820</v>
@@ -9796,10 +9796,10 @@
         <v>84</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M111" s="3">
         <v>13.729124000000001</v>
@@ -9814,12 +9814,12 @@
         <v>821</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>820</v>
@@ -9849,10 +9849,10 @@
         <v>84</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M112" s="3">
         <v>13.962237</v>
@@ -9867,12 +9867,12 @@
         <v>821</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>820</v>
@@ -9920,12 +9920,12 @@
         <v>821</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>820</v>
@@ -9955,10 +9955,10 @@
         <v>84</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M114" s="3">
         <v>13.724164</v>
@@ -9973,12 +9973,12 @@
         <v>821</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>820</v>
@@ -10008,10 +10008,10 @@
         <v>84</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M115" s="3">
         <v>13.759080000000001</v>
@@ -10026,12 +10026,12 @@
         <v>821</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>820</v>
@@ -10061,10 +10061,10 @@
         <v>84</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M116" s="3">
         <v>13.721811000000001</v>
@@ -10079,12 +10079,12 @@
         <v>821</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>820</v>
@@ -10114,10 +10114,10 @@
         <v>84</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M117" s="3">
         <v>13.783474</v>
@@ -10132,12 +10132,12 @@
         <v>821</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>820</v>
@@ -10167,10 +10167,10 @@
         <v>84</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M118" s="3">
         <v>13.787800000000001</v>
@@ -10185,12 +10185,12 @@
         <v>821</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>820</v>
@@ -10220,10 +10220,10 @@
         <v>84</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M119" s="3">
         <v>13.755098</v>
@@ -10238,12 +10238,12 @@
         <v>821</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>820</v>
@@ -10273,10 +10273,10 @@
         <v>84</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M120" s="3">
         <v>13.669539</v>
@@ -10291,12 +10291,12 @@
         <v>821</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>820</v>
@@ -10326,10 +10326,10 @@
         <v>84</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M121" s="3">
         <v>13.772365000000001</v>
@@ -10344,12 +10344,12 @@
         <v>821</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>820</v>
@@ -10379,10 +10379,10 @@
         <v>84</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M122" s="3">
         <v>13.76502</v>
@@ -10397,12 +10397,12 @@
         <v>821</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>820</v>
@@ -10432,10 +10432,10 @@
         <v>84</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M123" s="3">
         <v>13.750797</v>
@@ -10450,12 +10450,12 @@
         <v>821</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>820</v>
@@ -10485,10 +10485,10 @@
         <v>9</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M124" s="3">
         <v>13.739057000000001</v>
@@ -10503,12 +10503,12 @@
         <v>821</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>820</v>
@@ -10538,10 +10538,10 @@
         <v>9</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M125" s="3">
         <v>13.740399999999999</v>
@@ -10556,12 +10556,12 @@
         <v>821</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>820</v>
@@ -10609,12 +10609,12 @@
         <v>821</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>820</v>
@@ -10662,12 +10662,12 @@
         <v>821</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>820</v>
@@ -10715,12 +10715,12 @@
         <v>821</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>820</v>
@@ -10768,12 +10768,12 @@
         <v>821</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>820</v>
@@ -10803,10 +10803,10 @@
         <v>73</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M130" s="3">
         <v>13.702631</v>
@@ -10821,12 +10821,12 @@
         <v>821</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>820</v>
@@ -10856,10 +10856,10 @@
         <v>84</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M131" s="3">
         <v>13.733335</v>
@@ -10874,12 +10874,12 @@
         <v>821</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>820</v>
@@ -10909,10 +10909,10 @@
         <v>508</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M132" s="3">
         <v>13.727149000000001</v>
@@ -10927,12 +10927,12 @@
         <v>821</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>820</v>
@@ -10980,12 +10980,12 @@
         <v>821</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>820</v>
@@ -11015,10 +11015,10 @@
         <v>84</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M134" s="3">
         <v>13.737</v>
@@ -11033,12 +11033,12 @@
         <v>821</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>820</v>
@@ -11068,10 +11068,10 @@
         <v>84</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M135" s="3">
         <v>13.632566000000001</v>
@@ -11086,12 +11086,12 @@
         <v>821</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>820</v>
@@ -11139,12 +11139,12 @@
         <v>821</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>820</v>
@@ -11186,12 +11186,12 @@
         <v>821</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>820</v>
@@ -11233,12 +11233,12 @@
         <v>821</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>820</v>
@@ -11280,12 +11280,12 @@
         <v>821</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>820</v>
@@ -11327,12 +11327,12 @@
         <v>821</v>
       </c>
       <c r="Q140" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>820</v>
@@ -11374,12 +11374,12 @@
         <v>821</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>820</v>
@@ -11421,12 +11421,12 @@
         <v>821</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>820</v>
@@ -11468,12 +11468,12 @@
         <v>821</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>820</v>
@@ -11515,12 +11515,12 @@
         <v>821</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>820</v>
@@ -11562,12 +11562,12 @@
         <v>821</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>820</v>
@@ -11609,12 +11609,12 @@
         <v>821</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>820</v>
@@ -11656,12 +11656,12 @@
         <v>821</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>820</v>
@@ -11703,12 +11703,12 @@
         <v>821</v>
       </c>
       <c r="Q148" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>820</v>
@@ -11750,12 +11750,12 @@
         <v>821</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>820</v>
@@ -11797,12 +11797,12 @@
         <v>821</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>820</v>
@@ -11844,12 +11844,12 @@
         <v>821</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>820</v>
@@ -11891,12 +11891,12 @@
         <v>821</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>820</v>
@@ -11938,12 +11938,12 @@
         <v>821</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>820</v>
@@ -11985,12 +11985,12 @@
         <v>821</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>820</v>
@@ -12032,12 +12032,12 @@
         <v>821</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>820</v>
@@ -12079,12 +12079,12 @@
         <v>821</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>820</v>
@@ -12126,12 +12126,12 @@
         <v>821</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>820</v>
@@ -12173,12 +12173,12 @@
         <v>821</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>820</v>
@@ -12220,12 +12220,12 @@
         <v>821</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>820</v>
@@ -12273,12 +12273,12 @@
         <v>821</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>820</v>
@@ -12326,12 +12326,12 @@
         <v>821</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>820</v>
@@ -12379,12 +12379,12 @@
         <v>821</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>820</v>
@@ -12432,12 +12432,12 @@
         <v>821</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>820</v>
@@ -12485,12 +12485,12 @@
         <v>821</v>
       </c>
       <c r="Q164" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>820</v>
@@ -12538,12 +12538,12 @@
         <v>821</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>820</v>
@@ -12555,7 +12555,7 @@
         <v>585</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3" t="s">
@@ -12569,10 +12569,10 @@
         <v>587</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M166" s="3">
         <v>13.739546000000001</v>
@@ -12587,12 +12587,12 @@
         <v>821</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>820</v>
@@ -12604,7 +12604,7 @@
         <v>589</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3" t="s">
@@ -12636,12 +12636,12 @@
         <v>821</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>820</v>
@@ -12653,7 +12653,7 @@
         <v>594</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
@@ -12670,7 +12670,7 @@
         <v>597</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M168" s="3">
         <v>13.731586</v>
@@ -12685,12 +12685,12 @@
         <v>821</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>820</v>
@@ -12702,7 +12702,7 @@
         <v>599</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
@@ -12734,12 +12734,12 @@
         <v>821</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>820</v>
@@ -12751,7 +12751,7 @@
         <v>603</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3" t="s">
@@ -12783,12 +12783,12 @@
         <v>821</v>
       </c>
       <c r="Q170" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>820</v>
@@ -12800,7 +12800,7 @@
         <v>607</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3" t="s">
@@ -12832,12 +12832,12 @@
         <v>821</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>820</v>
@@ -12849,7 +12849,7 @@
         <v>612</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3" t="s">
@@ -12866,7 +12866,7 @@
         <v>597</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M172" s="3">
         <v>13.721919</v>
@@ -12881,12 +12881,12 @@
         <v>821</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>820</v>
@@ -12898,7 +12898,7 @@
         <v>615</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3" t="s">
@@ -12930,12 +12930,12 @@
         <v>821</v>
       </c>
       <c r="Q173" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>820</v>
@@ -12947,7 +12947,7 @@
         <v>619</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
@@ -12979,12 +12979,12 @@
         <v>821</v>
       </c>
       <c r="Q174" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>820</v>
@@ -12996,7 +12996,7 @@
         <v>622</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
@@ -13010,10 +13010,10 @@
         <v>587</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M175" s="3">
         <v>13.808223999999999</v>
@@ -13028,12 +13028,12 @@
         <v>821</v>
       </c>
       <c r="Q175" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>820</v>
@@ -13045,7 +13045,7 @@
         <v>625</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3" t="s">
@@ -13062,7 +13062,7 @@
         <v>627</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M176" s="3">
         <v>13.726979</v>
@@ -13077,12 +13077,12 @@
         <v>821</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>820</v>
@@ -13094,7 +13094,7 @@
         <v>629</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3" t="s">
@@ -13126,12 +13126,12 @@
         <v>821</v>
       </c>
       <c r="Q177" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>820</v>
@@ -13143,7 +13143,7 @@
         <v>633</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3" t="s">
@@ -13175,12 +13175,12 @@
         <v>821</v>
       </c>
       <c r="Q178" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>820</v>
@@ -13192,7 +13192,7 @@
         <v>637</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3" t="s">
@@ -13224,12 +13224,12 @@
         <v>821</v>
       </c>
       <c r="Q179" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>820</v>
@@ -13241,7 +13241,7 @@
         <v>641</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3" t="s">
@@ -13255,10 +13255,10 @@
         <v>587</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M180" s="3">
         <v>13.724862999999999</v>
@@ -13273,12 +13273,12 @@
         <v>821</v>
       </c>
       <c r="Q180" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>820</v>
@@ -13290,7 +13290,7 @@
         <v>644</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3" t="s">
@@ -13322,12 +13322,12 @@
         <v>821</v>
       </c>
       <c r="Q181" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>820</v>
@@ -13339,7 +13339,7 @@
         <v>647</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3" t="s">
@@ -13371,12 +13371,12 @@
         <v>821</v>
       </c>
       <c r="Q182" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>820</v>
@@ -13388,7 +13388,7 @@
         <v>652</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3" t="s">
@@ -13420,12 +13420,12 @@
         <v>821</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>820</v>
@@ -13437,7 +13437,7 @@
         <v>656</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3" t="s">
@@ -13469,12 +13469,12 @@
         <v>821</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>820</v>
@@ -13486,7 +13486,7 @@
         <v>661</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3" t="s">
@@ -13518,12 +13518,12 @@
         <v>821</v>
       </c>
       <c r="Q185" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>820</v>
@@ -13535,7 +13535,7 @@
         <v>664</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3" t="s">
@@ -13567,12 +13567,12 @@
         <v>821</v>
       </c>
       <c r="Q186" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>820</v>
@@ -13584,7 +13584,7 @@
         <v>667</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
@@ -13616,12 +13616,12 @@
         <v>821</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>820</v>
@@ -13633,7 +13633,7 @@
         <v>671</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3" t="s">
@@ -13665,12 +13665,12 @@
         <v>821</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>820</v>
@@ -13682,7 +13682,7 @@
         <v>675</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3" t="s">
@@ -13714,12 +13714,12 @@
         <v>821</v>
       </c>
       <c r="Q189" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>820</v>
@@ -13731,7 +13731,7 @@
         <v>678</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3" t="s">
@@ -13763,12 +13763,12 @@
         <v>821</v>
       </c>
       <c r="Q190" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>820</v>
@@ -13780,7 +13780,7 @@
         <v>681</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3" t="s">
@@ -13812,12 +13812,12 @@
         <v>821</v>
       </c>
       <c r="Q191" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>820</v>
@@ -13829,7 +13829,7 @@
         <v>685</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3" t="s">
@@ -13861,12 +13861,12 @@
         <v>821</v>
       </c>
       <c r="Q192" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>820</v>
@@ -13878,7 +13878,7 @@
         <v>688</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3" t="s">
@@ -13910,12 +13910,12 @@
         <v>821</v>
       </c>
       <c r="Q193" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>820</v>
@@ -13927,7 +13927,7 @@
         <v>692</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3" t="s">
@@ -13959,12 +13959,12 @@
         <v>821</v>
       </c>
       <c r="Q194" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>820</v>
@@ -13976,7 +13976,7 @@
         <v>695</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3" t="s">
@@ -14008,12 +14008,12 @@
         <v>821</v>
       </c>
       <c r="Q195" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>820</v>
@@ -14025,7 +14025,7 @@
         <v>699</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3" t="s">
@@ -14057,12 +14057,12 @@
         <v>821</v>
       </c>
       <c r="Q196" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>820</v>
@@ -14074,7 +14074,7 @@
         <v>702</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3" t="s">
@@ -14106,12 +14106,12 @@
         <v>821</v>
       </c>
       <c r="Q197" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>820</v>
@@ -14123,7 +14123,7 @@
         <v>705</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3" t="s">
@@ -14155,12 +14155,12 @@
         <v>821</v>
       </c>
       <c r="Q198" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>820</v>
@@ -14172,7 +14172,7 @@
         <v>708</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3" t="s">
@@ -14204,12 +14204,12 @@
         <v>821</v>
       </c>
       <c r="Q199" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>820</v>
@@ -14221,7 +14221,7 @@
         <v>712</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3" t="s">
@@ -14253,12 +14253,12 @@
         <v>821</v>
       </c>
       <c r="Q200" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>820</v>
@@ -14270,7 +14270,7 @@
         <v>716</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3" t="s">
@@ -14302,12 +14302,12 @@
         <v>821</v>
       </c>
       <c r="Q201" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>820</v>
@@ -14319,7 +14319,7 @@
         <v>721</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3" t="s">
@@ -14351,12 +14351,12 @@
         <v>821</v>
       </c>
       <c r="Q202" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>820</v>
@@ -14368,7 +14368,7 @@
         <v>724</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3" t="s">
@@ -14400,12 +14400,12 @@
         <v>821</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>820</v>
@@ -14417,7 +14417,7 @@
         <v>728</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3" t="s">
@@ -14449,12 +14449,12 @@
         <v>821</v>
       </c>
       <c r="Q204" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>820</v>
@@ -14466,7 +14466,7 @@
         <v>731</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3" t="s">
@@ -14498,12 +14498,12 @@
         <v>821</v>
       </c>
       <c r="Q205" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>820</v>
@@ -14515,7 +14515,7 @@
         <v>734</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3" t="s">
@@ -14547,12 +14547,12 @@
         <v>821</v>
       </c>
       <c r="Q206" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>820</v>
@@ -14564,7 +14564,7 @@
         <v>737</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3" t="s">
@@ -14596,12 +14596,12 @@
         <v>821</v>
       </c>
       <c r="Q207" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>820</v>
@@ -14613,7 +14613,7 @@
         <v>740</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
@@ -14645,12 +14645,12 @@
         <v>821</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>820</v>
@@ -14662,7 +14662,7 @@
         <v>743</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3" t="s">
@@ -14694,12 +14694,12 @@
         <v>821</v>
       </c>
       <c r="Q209" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>820</v>
@@ -14711,7 +14711,7 @@
         <v>747</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3" t="s">
@@ -14743,12 +14743,12 @@
         <v>821</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>820</v>
@@ -14760,7 +14760,7 @@
         <v>750</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3" t="s">
@@ -14792,12 +14792,12 @@
         <v>821</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>820</v>
@@ -14809,7 +14809,7 @@
         <v>753</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3" t="s">
@@ -14841,12 +14841,12 @@
         <v>821</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>820</v>
@@ -14858,7 +14858,7 @@
         <v>756</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3" t="s">
@@ -14890,12 +14890,12 @@
         <v>821</v>
       </c>
       <c r="Q213" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>820</v>
@@ -14907,7 +14907,7 @@
         <v>759</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3" t="s">
@@ -14939,12 +14939,12 @@
         <v>821</v>
       </c>
       <c r="Q214" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>820</v>
@@ -14956,7 +14956,7 @@
         <v>762</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3" t="s">
@@ -14988,12 +14988,12 @@
         <v>821</v>
       </c>
       <c r="Q215" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>820</v>
@@ -15005,7 +15005,7 @@
         <v>765</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
@@ -15037,12 +15037,12 @@
         <v>821</v>
       </c>
       <c r="Q216" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>820</v>
@@ -15054,7 +15054,7 @@
         <v>768</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3" t="s">
@@ -15086,12 +15086,12 @@
         <v>821</v>
       </c>
       <c r="Q217" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>820</v>
@@ -15103,7 +15103,7 @@
         <v>771</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3" t="s">
@@ -15135,12 +15135,12 @@
         <v>821</v>
       </c>
       <c r="Q218" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>820</v>
@@ -15152,7 +15152,7 @@
         <v>774</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3" t="s">
@@ -15166,10 +15166,10 @@
         <v>596</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M219" s="3">
         <v>13.758573</v>
@@ -15184,12 +15184,12 @@
         <v>821</v>
       </c>
       <c r="Q219" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>820</v>
@@ -15201,7 +15201,7 @@
         <v>777</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3" t="s">
@@ -15233,12 +15233,12 @@
         <v>821</v>
       </c>
       <c r="Q220" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>820</v>
@@ -15250,7 +15250,7 @@
         <v>780</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3" t="s">
@@ -15282,12 +15282,12 @@
         <v>821</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>820</v>
@@ -15299,7 +15299,7 @@
         <v>784</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3" t="s">
@@ -15331,12 +15331,12 @@
         <v>821</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>820</v>
@@ -15348,7 +15348,7 @@
         <v>787</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="3" t="s">
@@ -15380,12 +15380,12 @@
         <v>821</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>820</v>
@@ -15397,7 +15397,7 @@
         <v>790</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3" t="s">
@@ -15429,12 +15429,12 @@
         <v>821</v>
       </c>
       <c r="Q224" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>820</v>
@@ -15446,7 +15446,7 @@
         <v>792</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3" t="s">
@@ -15478,12 +15478,12 @@
         <v>821</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>820</v>
@@ -15495,7 +15495,7 @@
         <v>795</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3" t="s">
@@ -15527,12 +15527,12 @@
         <v>821</v>
       </c>
       <c r="Q226" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>820</v>
@@ -15544,7 +15544,7 @@
         <v>798</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3" t="s">
@@ -15576,12 +15576,12 @@
         <v>821</v>
       </c>
       <c r="Q227" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>820</v>
@@ -15593,7 +15593,7 @@
         <v>801</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="3" t="s">
@@ -15625,12 +15625,12 @@
         <v>821</v>
       </c>
       <c r="Q228" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>820</v>
@@ -15642,7 +15642,7 @@
         <v>804</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
@@ -15674,12 +15674,12 @@
         <v>821</v>
       </c>
       <c r="Q229" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>820</v>
@@ -15691,7 +15691,7 @@
         <v>807</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="3" t="s">
@@ -15723,12 +15723,12 @@
         <v>821</v>
       </c>
       <c r="Q230" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>820</v>
@@ -15740,7 +15740,7 @@
         <v>809</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
@@ -15772,12 +15772,12 @@
         <v>821</v>
       </c>
       <c r="Q231" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>820</v>
@@ -15789,7 +15789,7 @@
         <v>811</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
@@ -15821,12 +15821,12 @@
         <v>821</v>
       </c>
       <c r="Q232" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>820</v>
@@ -15838,7 +15838,7 @@
         <v>814</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="3" t="s">
@@ -15870,12 +15870,12 @@
         <v>821</v>
       </c>
       <c r="Q233" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>820</v>
@@ -15887,7 +15887,7 @@
         <v>816</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
@@ -15919,12 +15919,12 @@
         <v>821</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>820</v>
@@ -15936,7 +15936,7 @@
         <v>819</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="3" t="s">
@@ -15968,7 +15968,7 @@
         <v>821</v>
       </c>
       <c r="Q235" s="2" t="s">
-        <v>829</v>
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
